--- a/Entregaveis/1.RepositorioSemantico/Alergias/CargaOCLAlergias/Meddra.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/CargaOCLAlergias/Meddra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/CargaOCLAlergias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924029AB-9954-EA45-9A82-7C65C791BA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1997EB3F-72C5-A64D-BDAB-18D2CFD620E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{E151489A-10BC-AC43-8B02-94C2798F1A7F}"/>
   </bookViews>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA17F31-818D-954F-8288-FEAF7A79350C}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
